--- a/Data-Analysis/Result_DA/Utilization_analysis.xlsx
+++ b/Data-Analysis/Result_DA/Utilization_analysis.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5432c06226f2998e/Universita/LM-Computer Engineering/PECSN/PECSN-Project/Factorial-Analysis/Result_DA/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5432c06226f2998e/Universita/LM-Computer Engineering/PECSN/PECSN-Project/Data-Analysis/Result_DA/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="40" documentId="11_687D96A587905C28BB5A3511595ED87656CCC125" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E2E38BB2-10FE-4938-A422-6B31EEF1871C}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="11588" yWindow="6308" windowWidth="12434" windowHeight="6765" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2929,6 +2929,10 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -10391,11 +10395,11 @@
         <v>9.920065682234025E-7</v>
       </c>
       <c r="J194">
-        <f t="shared" ref="J194:J257" si="6">H194/I194</f>
+        <f t="shared" ref="J194:J244" si="6">H194/I194</f>
         <v>1008053.9908026075</v>
       </c>
       <c r="K194">
-        <f t="shared" ref="K194:K257" si="7">LOG10(J194)</f>
+        <f t="shared" ref="K194:K244" si="7">LOG10(J194)</f>
         <v>6.0034837932996918</v>
       </c>
     </row>
